--- a/HiNoApp/Resources/data/test-login.xlsx
+++ b/HiNoApp/Resources/data/test-login.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -31,19 +31,16 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>DashboardFail</t>
-  </si>
-  <si>
-    <t>Dashboard3</t>
-  </si>
-  <si>
-    <t>Dashboard4</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
     <t>expected</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -385,14 +382,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -406,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -420,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -428,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -445,24 +442,18 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
